--- a/public/excel-template/ini.xlsx
+++ b/public/excel-template/ini.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ercom\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\Project_pbl\public\excel-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBC4309-352A-4ABA-BD51-40D52F90CA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA22CF16-5611-46F5-AECE-BAA17217CBA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,15 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>REKAPITULASI KEHADIRAN</t>
   </si>
   <si>
     <t>Nama Pegawai</t>
-  </si>
-  <si>
-    <t>Arief Muhammad Akrom</t>
   </si>
   <si>
     <t>Unit Kerja</t>
@@ -95,15 +92,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -417,7 +419,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,85 +429,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="7">
+  <mergeCells count="11">
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:G4"/>
@@ -513,6 +527,9 @@
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="G8:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/excel-template/ini.xlsx
+++ b/public/excel-template/ini.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\Project_pbl\public\excel-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA22CF16-5611-46F5-AECE-BAA17217CBA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F74458-FA84-45B3-AB2E-448A1FD46BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -419,12 +419,13 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B7" sqref="B7:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
